--- a/src/students.xlsx
+++ b/src/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20237419</t>
+          <t>20237467</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lê Hải Biên</t>
+          <t>Hoàng Bình Nguyên</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05/01/2005</t>
+          <t>04/05/2005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Toán TIn</t>
+          <t>Toán Tin</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -508,12 +508,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20237467</t>
+          <t>20231234</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hoàng Bình Nguyên</t>
+          <t>Hoàng Văn A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>04/05/2005</t>
+          <t>05/07/2005</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -533,29 +533,29 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Toán Tin</t>
+          <t>CNTT và TT</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>MI2_01</t>
+          <t>IT2_01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MI2</t>
+          <t>Kĩ thuật máy tính</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20226372</t>
+          <t>20237367</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lê Công Vinh</t>
+          <t>Nguyễn Đình Minh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,12 +565,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>08/10/2005</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>K67</t>
+          <t>K68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -580,12 +580,96 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>MI1_01</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Toán Tin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20237419</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lê Hải Biên</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>05/01/2005</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>K68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Toán TIn</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>MI2_01</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>MI2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20237542</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Khổng Doãn H</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01/10/2005</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>K68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cơ khí</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ME2_03</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Cơ khí</t>
         </is>
       </c>
     </row>

--- a/src/students.xlsx
+++ b/src/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>MI2_01</t>
+          <t>MI2_02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MI2</t>
+          <t>HTTTQL</t>
         </is>
       </c>
     </row>
@@ -670,6 +670,90 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>Kỹ thuật Cơ khí</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20227418</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Phạm Văn Phú</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>09/11/2004</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>K67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CNTT và TT</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>IT1_01</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Khoa học máy tính</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20237461</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Trần Đình Nhật</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>09/04/2005</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>K68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CNTT và TT</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>IT2_02</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Kĩ thuật máy tính</t>
         </is>
       </c>
     </row>
